--- a/bot/Menu.xlsx
+++ b/bot/Menu.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
+  <si>
+    <t>Day</t>
+  </si>
   <si>
     <r>
       <t/>
@@ -24,7 +27,7 @@
         <b/>
         <u/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -34,7 +37,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -50,7 +53,7 @@
         <b/>
         <u/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -66,7 +69,7 @@
         <b/>
         <u/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -82,7 +85,7 @@
         <b/>
         <u/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -92,7 +95,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -107,7 +110,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -122,7 +125,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -137,7 +140,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -152,7 +155,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -167,7 +170,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -182,7 +185,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -197,7 +200,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -212,7 +215,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -227,7 +230,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -242,7 +245,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -257,7 +260,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -272,7 +275,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -287,7 +290,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -302,7 +305,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -317,7 +320,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -332,7 +335,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -347,7 +350,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -362,7 +365,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -377,7 +380,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -392,7 +395,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -407,7 +410,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -422,7 +425,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -437,7 +440,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -452,7 +455,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -467,7 +470,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -482,7 +485,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -497,7 +500,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -512,7 +515,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -527,7 +530,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -542,7 +545,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -557,7 +560,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -572,7 +575,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -587,7 +590,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -602,7 +605,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -617,7 +620,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -632,7 +635,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -647,7 +650,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -662,7 +665,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -677,7 +680,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -692,7 +695,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -707,7 +710,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -722,7 +725,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -737,7 +740,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -752,7 +755,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -767,7 +770,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -782,7 +785,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -797,7 +800,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -812,7 +815,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -827,7 +830,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -842,7 +845,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -857,7 +860,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -872,7 +875,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -887,7 +890,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -902,7 +905,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -917,7 +920,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -932,7 +935,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -947,7 +950,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -962,7 +965,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -977,7 +980,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -992,7 +995,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1007,7 +1010,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1022,7 +1025,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1037,7 +1040,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1052,7 +1055,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1067,7 +1070,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1082,7 +1085,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1097,7 +1100,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1112,7 +1115,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1127,7 +1130,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1142,7 +1145,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1157,7 +1160,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1172,7 +1175,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1187,7 +1190,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1202,7 +1205,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1217,7 +1220,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1232,7 +1235,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1247,7 +1250,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1262,7 +1265,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1277,7 +1280,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1292,7 +1295,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1307,7 +1310,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1322,7 +1325,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1337,7 +1340,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1352,7 +1355,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1367,7 +1370,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1382,7 +1385,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1397,7 +1400,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1412,7 +1415,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1427,7 +1430,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1442,7 +1445,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1457,7 +1460,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1472,7 +1475,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1487,7 +1490,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1502,7 +1505,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1516,7 +1519,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1531,7 +1534,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1546,7 +1549,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1557,7 +1560,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1572,7 +1575,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1587,7 +1590,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1602,7 +1605,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1617,7 +1620,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1632,7 +1635,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1647,7 +1650,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1662,7 +1665,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1677,7 +1680,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1692,7 +1695,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1707,7 +1710,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1722,7 +1725,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1737,7 +1740,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1752,7 +1755,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1767,7 +1770,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1782,7 +1785,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1797,7 +1800,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1812,7 +1815,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1827,7 +1830,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1842,7 +1845,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1857,7 +1860,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1872,7 +1875,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1887,7 +1890,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1902,7 +1905,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1917,7 +1920,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1932,7 +1935,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1947,7 +1950,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1962,7 +1965,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1977,7 +1980,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -1992,7 +1995,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2007,7 +2010,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2022,7 +2025,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2037,7 +2040,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2052,7 +2055,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2067,7 +2070,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2082,7 +2085,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2097,7 +2100,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2112,7 +2115,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2127,7 +2130,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2142,7 +2145,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2157,7 +2160,7 @@
       <rPr>
         <b/>
         <sz val="4"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="2"/>
       </rPr>
@@ -2180,27 +2183,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="4"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="4"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -2778,317 +2781,319 @@
     <col min="5" max="5" style="47" width="25.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18" customFormat="1" s="1">
-      <c r="A1" s="2"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18" customFormat="1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18" customFormat="1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A8" s="8"/>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18" customFormat="1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A9" s="8"/>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A10" s="8"/>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A11" s="8"/>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A12" s="9"/>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A15" s="14"/>
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A16" s="14"/>
       <c r="B16" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18" customFormat="1" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="14"/>
       <c r="B17" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" customFormat="1" s="1">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18" customFormat="1" s="1">
       <c r="A19" s="14"/>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A20" s="14"/>
       <c r="B20" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A21" s="14"/>
       <c r="B21" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A22" s="14"/>
       <c r="B22" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A23" s="14"/>
       <c r="B23" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A24" s="15"/>
       <c r="B24" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="12"/>
     </row>
@@ -3101,82 +3106,82 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A26" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A27" s="19"/>
       <c r="B27" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A28" s="19"/>
       <c r="B28" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A29" s="19"/>
       <c r="B29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>12</v>
-      </c>
       <c r="D29" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A30" s="19"/>
       <c r="B30" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A31" s="19"/>
       <c r="B31" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3184,10 +3189,10 @@
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A32" s="19"/>
       <c r="B32" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -3195,36 +3200,36 @@
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A33" s="19"/>
       <c r="B33" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A34" s="19"/>
       <c r="B34" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A35" s="20"/>
       <c r="B35" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -3238,125 +3243,125 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A37" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A38" s="25"/>
       <c r="B38" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A39" s="25"/>
       <c r="B39" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A40" s="25"/>
       <c r="B40" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A41" s="25"/>
       <c r="B41" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A42" s="25"/>
       <c r="B42" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A43" s="25"/>
       <c r="B43" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A44" s="25"/>
       <c r="B44" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A45" s="25"/>
       <c r="B45" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -3364,10 +3369,10 @@
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A46" s="25"/>
       <c r="B46" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -3376,7 +3381,7 @@
       <c r="A47" s="26"/>
       <c r="B47" s="23"/>
       <c r="C47" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -3385,135 +3390,135 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A49" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A50" s="32"/>
       <c r="B50" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A51" s="32"/>
       <c r="B51" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A52" s="32"/>
       <c r="B52" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A53" s="32"/>
       <c r="B53" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E53" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A54" s="32"/>
       <c r="B54" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A55" s="32"/>
       <c r="B55" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E55" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A56" s="32"/>
       <c r="B56" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E56" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A57" s="32"/>
       <c r="B57" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E57" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A58" s="35"/>
       <c r="B58" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
@@ -3527,101 +3532,101 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A60" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A61" s="39"/>
       <c r="B61" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A62" s="39"/>
       <c r="B62" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A63" s="39"/>
       <c r="B63" s="37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A64" s="39"/>
       <c r="B64" s="37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A65" s="39"/>
       <c r="B65" s="37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A66" s="39"/>
       <c r="B66" s="37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
@@ -3629,10 +3634,10 @@
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A67" s="39"/>
       <c r="B67" s="37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
@@ -3640,23 +3645,23 @@
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A68" s="39"/>
       <c r="B68" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E68" s="38"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A69" s="41"/>
       <c r="B69" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D69" s="38"/>
       <c r="E69" s="38"/>
@@ -3670,121 +3675,121 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A71" s="42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A72" s="44"/>
       <c r="B72" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A73" s="44"/>
       <c r="B73" s="45"/>
       <c r="C73" s="43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A74" s="44"/>
       <c r="B74" s="43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E74" s="45"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A75" s="44"/>
       <c r="B75" s="43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E75" s="45"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A76" s="44"/>
       <c r="B76" s="43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E76" s="45"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A77" s="44"/>
       <c r="B77" s="43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E77" s="45"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A78" s="44"/>
       <c r="B78" s="43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E78" s="45"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A79" s="44"/>
       <c r="B79" s="43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" s="45"/>
       <c r="E79" s="45"/>
@@ -3792,10 +3797,10 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="6.75" customFormat="1" s="1">
       <c r="A80" s="46"/>
       <c r="B80" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D80" s="45"/>
       <c r="E80" s="45"/>
